--- a/Tests Data/CanadianSolar CS6P-250P/Single-diode model/S = 765 W.m^-2 and T = 44.5 ºC/Single-diode emulator - CanadianSolar CS6P-250P (ref = STC, S = 765 and T = 44.5).xlsx
+++ b/Tests Data/CanadianSolar CS6P-250P/Single-diode model/S = 765 W.m^-2 and T = 44.5 ºC/Single-diode emulator - CanadianSolar CS6P-250P (ref = STC, S = 765 and T = 44.5).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel\Desktop\Stage\Émulateur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Stage\Emulator\Tests Data\CanadianSolar CS6P-250P\Single-diode model\S = 765 W.m^-2 and T = 44.5 ºC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F860C55-3838-43EE-B561-901FD9B914CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97246F4-1F50-44AA-ACEB-FD6FD18BD78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{217CCB4B-160F-4504-987F-9C10DFEEC66E}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="15375" windowHeight="7785" xr2:uid="{217CCB4B-160F-4504-987F-9C10DFEEC66E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Error (%)</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Rend. (%)</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -137,7 +140,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Accent6" xfId="1" builtinId="49"/>
+    <cellStyle name="Ênfase6" xfId="1" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -154,7 +157,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -470,13 +473,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B8D570-ED79-418B-A1D1-0F000D275672}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -524,502 +530,607 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B2">
-        <v>2.99</v>
+        <v>2.09</v>
       </c>
       <c r="C2">
         <f>A2*B2</f>
-        <v>149.5</v>
+        <v>125.39999999999999</v>
       </c>
       <c r="D2">
-        <v>21.66</v>
+        <v>17.68</v>
       </c>
       <c r="E2">
-        <v>6.61</v>
+        <v>6.5</v>
       </c>
       <c r="F2">
         <f>D2*E2</f>
-        <v>143.17260000000002</v>
+        <v>114.92</v>
       </c>
       <c r="G2">
         <f>D2/E2</f>
-        <v>3.2768532526475038</v>
+        <v>2.7199999999999998</v>
       </c>
       <c r="H2">
-        <v>36.06</v>
+        <v>34.899383999999998</v>
       </c>
       <c r="I2">
-        <v>11.09</v>
+        <v>13.178291</v>
       </c>
       <c r="J2">
-        <v>22.15</v>
+        <v>18.167007000000002</v>
       </c>
       <c r="K2">
-        <v>6.81</v>
+        <v>6.8600099999999999</v>
       </c>
       <c r="L2">
         <f>J2/K2</f>
-        <v>3.2525697503671074</v>
+        <v>2.6482478888514742</v>
       </c>
       <c r="M2">
         <f>(ABS(L2-G2)/G2)*100</f>
-        <v>0.74106163468799846</v>
+        <v>2.6379452628134388</v>
       </c>
       <c r="N2">
         <f>(F2/C2)*100</f>
-        <v>95.767625418060206</v>
+        <v>91.642743221690594</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B3">
-        <v>3.19</v>
+        <v>2.37</v>
       </c>
       <c r="C3">
         <f>A3*B3</f>
-        <v>159.5</v>
+        <v>142.20000000000002</v>
       </c>
       <c r="D3">
-        <v>23.03</v>
+        <v>20.059999999999999</v>
       </c>
       <c r="E3" s="3">
-        <v>6.63</v>
+        <v>6.55</v>
       </c>
       <c r="F3">
         <f>D3*E3</f>
-        <v>152.68890000000002</v>
+        <v>131.393</v>
       </c>
       <c r="G3">
         <f>D3/E3</f>
-        <v>3.4736048265460031</v>
+        <v>3.062595419847328</v>
       </c>
       <c r="H3">
-        <v>35.89</v>
+        <v>34.891418000000002</v>
       </c>
       <c r="I3">
-        <v>10.36</v>
+        <v>11.570683000000001</v>
       </c>
       <c r="J3">
-        <v>23.53</v>
+        <v>20.578102000000001</v>
       </c>
       <c r="K3">
-        <v>6.79</v>
+        <v>6.8241040000000002</v>
       </c>
       <c r="L3">
         <f>J3/K3</f>
-        <v>3.4653902798232696</v>
+        <v>3.0155024014874336</v>
       </c>
       <c r="M3">
         <f>(ABS(L3-G3)/G3)*100</f>
-        <v>0.23648477972958284</v>
+        <v>1.5376833013823921</v>
       </c>
       <c r="N3">
         <f>(F3/C3)*100</f>
-        <v>95.729717868338568</v>
+        <v>92.400140646976084</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B4">
-        <v>3.37</v>
+        <v>2.7</v>
       </c>
       <c r="C4">
         <f>A4*B4</f>
-        <v>168.5</v>
+        <v>162</v>
       </c>
       <c r="D4">
-        <v>24.57</v>
+        <v>22.13</v>
       </c>
       <c r="E4">
-        <v>6.47</v>
+        <v>6.81</v>
       </c>
       <c r="F4">
         <f>D4*E4</f>
-        <v>158.96789999999999</v>
+        <v>150.70529999999999</v>
       </c>
       <c r="G4">
         <f>D4/E4</f>
-        <v>3.7975270479134471</v>
+        <v>3.2496328928046991</v>
       </c>
       <c r="H4">
-        <v>35.9</v>
+        <v>34.907417000000002</v>
       </c>
       <c r="I4">
-        <v>9.5399999999999991</v>
+        <v>10.458957</v>
       </c>
       <c r="J4">
-        <v>25.08</v>
+        <v>22.671807999999999</v>
       </c>
       <c r="K4">
-        <v>6.66</v>
+        <v>6.7929240000000002</v>
       </c>
       <c r="L4">
-        <f>J4/K4</f>
-        <v>3.7657657657657655</v>
+        <f t="shared" ref="L4:L10" si="0">J4/K4</f>
+        <v>3.3375624399743025</v>
       </c>
       <c r="M4">
         <f>(ABS(L4-G4)/G4)*100</f>
-        <v>0.83636750303418761</v>
+        <v>2.7058301682105679</v>
       </c>
       <c r="N4">
         <f>(F4/C4)*100</f>
-        <v>94.342967359050434</v>
+        <v>93.02796296296296</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B5">
-        <v>3.44</v>
+        <v>2.74</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5" si="0">A5*B5</f>
-        <v>172</v>
+        <f t="shared" ref="C5" si="1">A5*B5</f>
+        <v>164.4</v>
       </c>
       <c r="D5">
-        <v>26.54</v>
+        <v>23.5</v>
       </c>
       <c r="E5">
-        <v>6.27</v>
+        <v>6.54</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5" si="1">D5*E5</f>
-        <v>166.40579999999997</v>
+        <f t="shared" ref="F5" si="2">D5*E5</f>
+        <v>153.69</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5" si="2">D5/E5</f>
-        <v>4.2328548644338122</v>
+        <f t="shared" ref="G5" si="3">D5/E5</f>
+        <v>3.5932721712538225</v>
       </c>
       <c r="H5">
-        <v>36.049999999999997</v>
+        <v>34.944701999999999</v>
       </c>
       <c r="I5">
-        <v>8.58</v>
+        <v>9.8456460000000003</v>
       </c>
       <c r="J5">
-        <v>27.04</v>
+        <v>24.037628000000002</v>
       </c>
       <c r="K5">
-        <v>6.43</v>
+        <v>6.7725850000000003</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5" si="3">J5/K5</f>
-        <v>4.2052877138413685</v>
+        <f t="shared" si="0"/>
+        <v>3.5492545313200203</v>
       </c>
       <c r="M5">
         <f t="shared" ref="M5" si="4">(ABS(L5-G5)/G5)*100</f>
-        <v>0.65126614248162118</v>
+        <v>1.2250015539024086</v>
       </c>
       <c r="N5">
         <f t="shared" ref="N5" si="5">(F5/C5)*100</f>
-        <v>96.74755813953486</v>
+        <v>93.485401459854018</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B6">
-        <v>3.43</v>
+        <v>2.81</v>
       </c>
       <c r="C6">
         <f>A6*B6</f>
-        <v>171.5</v>
+        <v>168.6</v>
       </c>
       <c r="D6">
-        <v>27.43</v>
+        <v>24.61</v>
       </c>
       <c r="E6">
-        <v>5.92</v>
+        <v>6.4</v>
       </c>
       <c r="F6">
         <f>D6*E6</f>
-        <v>162.38559999999998</v>
+        <v>157.50400000000002</v>
       </c>
       <c r="G6">
-        <f>D6/E6</f>
-        <v>4.6334459459459456</v>
+        <f t="shared" ref="G6:G10" si="6">D6/E6</f>
+        <v>3.8453124999999999</v>
       </c>
       <c r="H6">
-        <v>35.950000000000003</v>
+        <v>34.963158</v>
       </c>
       <c r="I6">
-        <v>7.81</v>
+        <v>9.2695450000000008</v>
       </c>
       <c r="J6">
-        <v>27.92</v>
+        <v>25.142115</v>
       </c>
       <c r="K6">
-        <v>6.07</v>
+        <v>6.6657580000000003</v>
       </c>
       <c r="L6">
-        <f>J6/K6</f>
-        <v>4.5996705107084024</v>
+        <f t="shared" si="0"/>
+        <v>3.7718313506130885</v>
       </c>
       <c r="M6">
-        <f>(ABS(L6-G6)/G6)*100</f>
-        <v>0.72894851114201942</v>
+        <f t="shared" ref="M6:M13" si="7">(ABS(L6-G6)/G6)*100</f>
+        <v>1.9109278995377208</v>
       </c>
       <c r="N6">
-        <f>(F6/C6)*100</f>
-        <v>94.685481049562668</v>
+        <f t="shared" ref="N6:N13" si="8">(F6/C6)*100</f>
+        <v>93.418742586002395</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B7">
-        <v>3.21</v>
+        <v>2.9</v>
       </c>
       <c r="C7">
         <f>A7*B7</f>
-        <v>160.5</v>
+        <v>174</v>
       </c>
       <c r="D7">
-        <v>28.57</v>
+        <v>26.39</v>
       </c>
       <c r="E7">
-        <v>5.44</v>
+        <v>6.25</v>
       </c>
       <c r="F7">
         <f>D7*E7</f>
-        <v>155.42080000000001</v>
+        <v>164.9375</v>
       </c>
       <c r="G7">
-        <f>D7/E7</f>
-        <v>5.2518382352941178</v>
+        <f t="shared" si="6"/>
+        <v>4.2224000000000004</v>
       </c>
       <c r="H7">
-        <v>35.94</v>
+        <v>34.947876000000001</v>
       </c>
       <c r="I7">
-        <v>6.92</v>
+        <v>8.4267439999999993</v>
       </c>
       <c r="J7">
-        <v>29.02</v>
+        <v>26.911085</v>
       </c>
       <c r="K7">
-        <v>5.59</v>
+        <v>6.4888870000000001</v>
       </c>
       <c r="L7">
-        <f>J7/K7</f>
-        <v>5.1914132379248663</v>
+        <f t="shared" si="0"/>
+        <v>4.1472574572496024</v>
       </c>
       <c r="M7">
-        <f>(ABS(L7-G7)/G7)*100</f>
-        <v>1.1505494773844167</v>
+        <f t="shared" si="7"/>
+        <v>1.7796168707464473</v>
       </c>
       <c r="N7">
-        <f>(F7/C7)*100</f>
-        <v>96.835389408099687</v>
+        <f t="shared" si="8"/>
+        <v>94.791666666666657</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B8">
-        <v>2.95</v>
+        <v>2.82</v>
       </c>
       <c r="C8">
         <f>A8*B8</f>
-        <v>147.5</v>
+        <v>169.2</v>
       </c>
       <c r="D8">
-        <v>36.04</v>
+        <v>27.88</v>
       </c>
       <c r="E8">
-        <v>5.91</v>
+        <v>5.75</v>
       </c>
       <c r="F8">
         <f>D8*E8</f>
-        <v>212.99639999999999</v>
+        <v>160.31</v>
       </c>
       <c r="G8">
         <f>D8/E8</f>
-        <v>6.0981387478849403</v>
+        <v>4.8486956521739133</v>
       </c>
       <c r="H8">
-        <v>36.04</v>
+        <v>34.970322000000003</v>
       </c>
       <c r="I8">
-        <v>5.91</v>
+        <v>7.3872499999999999</v>
       </c>
       <c r="J8">
-        <v>30.23</v>
+        <v>28.366150000000001</v>
       </c>
       <c r="K8">
-        <v>4.95</v>
+        <v>5.9921620000000004</v>
       </c>
       <c r="L8">
-        <f>J8/K8</f>
-        <v>6.1070707070707071</v>
+        <f t="shared" si="0"/>
+        <v>4.7338756862714995</v>
       </c>
       <c r="M8">
-        <f>(ABS(L8-G8)/G8)*100</f>
-        <v>0.14647025190866261</v>
+        <f t="shared" si="7"/>
+        <v>2.368058837657387</v>
       </c>
       <c r="N8">
-        <f>(F8/C8)*100</f>
-        <v>144.40433898305085</v>
+        <f t="shared" si="8"/>
+        <v>94.745862884160772</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B9">
-        <v>1.58</v>
+        <v>2.66</v>
       </c>
       <c r="C9">
         <f>A9*B9</f>
-        <v>79</v>
+        <v>159.60000000000002</v>
       </c>
       <c r="D9">
-        <v>31.88</v>
+        <v>29.59</v>
       </c>
       <c r="E9">
-        <v>2.39</v>
+        <v>5.13</v>
       </c>
       <c r="F9">
         <f>D9*E9</f>
-        <v>76.193200000000004</v>
+        <v>151.79669999999999</v>
       </c>
       <c r="G9">
-        <f>D9/E9</f>
-        <v>13.338912133891212</v>
+        <f t="shared" si="6"/>
+        <v>5.7680311890838212</v>
       </c>
       <c r="H9">
-        <v>35.979999999999997</v>
+        <v>34.995055999999998</v>
       </c>
       <c r="I9">
-        <v>2.83</v>
+        <v>6.2434219999999998</v>
       </c>
       <c r="J9">
-        <v>32.15</v>
+        <v>30.048497999999999</v>
       </c>
       <c r="K9">
-        <v>2.5299999999999998</v>
+        <v>5.3609119999999999</v>
       </c>
       <c r="L9">
-        <f>J9/K9</f>
-        <v>12.707509881422926</v>
+        <f t="shared" si="0"/>
+        <v>5.6051093545277366</v>
       </c>
       <c r="M9">
-        <f>(ABS(L9-G9)/G9)*100</f>
-        <v>4.7335363343764225</v>
+        <f t="shared" si="7"/>
+        <v>2.824565769762466</v>
       </c>
       <c r="N9">
-        <f>(F9/C9)*100</f>
-        <v>96.447088607594949</v>
+        <f t="shared" si="8"/>
+        <v>95.110714285714266</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B10">
-        <v>0.42</v>
+        <v>2.13</v>
       </c>
       <c r="C10">
         <f>A10*B10</f>
-        <v>21</v>
+        <v>127.8</v>
       </c>
       <c r="D10">
-        <v>33.43</v>
+        <v>30.72</v>
       </c>
       <c r="E10">
-        <v>0.54</v>
+        <v>3.94</v>
       </c>
       <c r="F10">
         <f>D10*E10</f>
-        <v>18.052200000000003</v>
+        <v>121.0368</v>
       </c>
       <c r="G10">
-        <f>D10/E10</f>
-        <v>61.907407407407405</v>
+        <f t="shared" si="6"/>
+        <v>7.7969543147208116</v>
       </c>
       <c r="H10">
-        <v>35.99</v>
+        <v>34.994736000000003</v>
       </c>
       <c r="I10">
-        <v>0.76</v>
+        <v>4.7194839999999996</v>
       </c>
       <c r="J10">
-        <v>33.590000000000003</v>
+        <v>31.099342</v>
       </c>
       <c r="K10">
-        <v>0.71</v>
+        <v>4.1941410000000001</v>
       </c>
       <c r="L10">
-        <f>J10/K10</f>
-        <v>47.309859154929583</v>
+        <f t="shared" si="0"/>
+        <v>7.4149490920786878</v>
       </c>
       <c r="M10">
-        <f>(ABS(L10-G10)/G10)*100</f>
-        <v>23.579647192156816</v>
+        <f t="shared" si="7"/>
+        <v>4.8994159414386971</v>
       </c>
       <c r="N10">
-        <f>(F10/C10)*100</f>
-        <v>85.962857142857146</v>
+        <f t="shared" si="8"/>
+        <v>94.707981220657274</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B11">
-        <v>0.14000000000000001</v>
+        <v>1.23</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C12" si="6">A11*B11</f>
-        <v>7.0000000000000009</v>
+        <f t="shared" ref="C11:C12" si="9">A11*B11</f>
+        <v>73.8</v>
       </c>
       <c r="D11">
-        <v>33.69</v>
+        <v>32.380000000000003</v>
       </c>
       <c r="E11">
-        <v>0.08</v>
+        <v>2.12</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11:F12" si="7">D11*E11</f>
-        <v>2.6951999999999998</v>
+        <f t="shared" ref="F11:F12" si="10">D11*E11</f>
+        <v>68.645600000000016</v>
       </c>
       <c r="G11">
         <f>D11/E11</f>
-        <v>421.12499999999994</v>
+        <v>15.273584905660378</v>
       </c>
       <c r="H11">
-        <v>35.99</v>
+        <v>35.008147999999998</v>
       </c>
       <c r="I11">
-        <v>0.28999999999999998</v>
+        <v>2.549782</v>
       </c>
       <c r="J11">
-        <v>33.81</v>
+        <v>32.679183999999999</v>
       </c>
       <c r="K11">
-        <v>0.27</v>
+        <v>2.3801540000000001</v>
       </c>
       <c r="L11">
-        <f t="shared" ref="L11:L12" si="8">J11/K11</f>
-        <v>125.22222222222223</v>
+        <f>J11/K11</f>
+        <v>13.729861177049887</v>
       </c>
       <c r="M11">
-        <f t="shared" ref="M11:M12" si="9">(ABS(L11-G11)/G11)*100</f>
-        <v>70.264832954058249</v>
+        <f t="shared" si="7"/>
+        <v>10.107147327530082</v>
       </c>
       <c r="N11">
-        <f t="shared" ref="N11:N12" si="10">(F11/C11)*100</f>
-        <v>38.502857142857131</v>
+        <f t="shared" si="8"/>
+        <v>93.015718157181595</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>0.62</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="9"/>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="D12">
+        <v>33.36</v>
+      </c>
+      <c r="E12">
+        <v>0.99</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="10"/>
+        <v>33.026400000000002</v>
+      </c>
+      <c r="G12">
+        <f>D12/E12</f>
+        <v>33.696969696969695</v>
+      </c>
+      <c r="H12">
+        <v>35.006821000000002</v>
+      </c>
+      <c r="I12">
+        <v>1.366153</v>
+      </c>
+      <c r="J12">
+        <v>33.609786999999997</v>
+      </c>
+      <c r="K12">
+        <v>1.311633</v>
+      </c>
+      <c r="L12">
+        <f>J12/K12</f>
+        <v>25.624383497517975</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="7"/>
+        <v>23.956415879667876</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="8"/>
+        <v>88.780645161290323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>60</v>
+      </c>
+      <c r="B13">
+        <v>0.18</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13" si="11">A13*B13</f>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="D13">
+        <v>33.83</v>
+      </c>
+      <c r="E13">
+        <v>0.16</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13" si="12">D13*E13</f>
+        <v>5.4127999999999998</v>
+      </c>
+      <c r="G13">
+        <f>D13/E13</f>
+        <v>211.43749999999997</v>
+      </c>
+      <c r="H13">
+        <v>35.009414999999997</v>
+      </c>
+      <c r="I13">
+        <v>0.53222800000000003</v>
+      </c>
+      <c r="J13">
+        <v>34.009475999999999</v>
+      </c>
+      <c r="K13">
+        <v>0.51702599999999999</v>
+      </c>
+      <c r="L13">
+        <f>J13/K13</f>
+        <v>65.779043993919075</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="7"/>
+        <v>68.88960378649999</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="8"/>
+        <v>50.11851851851852</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
